--- a/results/changing-meta-1.xlsx
+++ b/results/changing-meta-1.xlsx
@@ -1,34 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\tradingbot-pws\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29380CEF-FD65-4BFB-A34F-981C4D28DB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>episode \ parameter</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,81 +59,1477 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet!$A$1:$A$94</c:f>
+              <c:strCache>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>episode \ parameter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$B$1:$B$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.569999999999936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.6915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>444.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-16.849999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>530.41999999999973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>333.52499999999958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>554.36070000000018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1169.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>445.84069999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>655.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>465.67489999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>813.67000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2643.7900000000009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>548.1600000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1023.79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1122.8599999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>745.42500000000018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-72.429999999999978</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1416.2863000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1722.0300000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>999.09590000000014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>778.99999999999977</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>443.56740000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2330.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>826.17999999999984</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>998.43999999999983</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1389.0985000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1464.77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>964.57499999999936</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2976.02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>521.14999999999975</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>667.45999999999992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1566.95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>471.05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-107.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1320.2850000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>491.57000000000022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>580.7850000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>192.7699999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>312.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>164.8899999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1091.5350000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>413.9100000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1917.4965</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>918.24500000000012</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>821.35000000000014</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>605.96910000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>872.68799999999965</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>595.7399999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2029.29</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>406.34000000000009</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>229.23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1380.21</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-791.82999999999981</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>685.41000000000008</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>799.01000000000022</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1033.92</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1038.8000000000011</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>703.70249999999965</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>678.24000000000035</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>558.7629000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>653.4149000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>734.38999999999987</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>918.15000000000066</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>696.57000000000016</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-625.95999999999981</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>482.42999999999989</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1044.0550000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>326.7030000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>864.30190000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>500.62500000000023</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>666.50500000000022</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>96.290000000000077</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>900.42000000000007</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>623.15499999999975</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>570.48439999999982</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-782.86999999999989</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1441.2049999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>660.70000000000016</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>504.05999999999989</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>641.52000000000021</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1762.16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>452.64000000000021</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-689.21</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>492.77999999999992</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1906.52</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>910.27</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1937.21</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>459.92000000000019</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>459.99929999999972</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-769.61999999999966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDA4-465F-8AE4-F908E1DEC0A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="442224432"/>
+        <c:axId val="442229024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="442224432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442229024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442229024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442224432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93BE29F8-764D-1833-E580-37971F4EF6A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,294 +1816,767 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>episode \ parameter</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>76.56999999999994</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2">
+        <v>76.569999999999936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>122.6915</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>353.52</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>444.825</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5">
+        <v>444.82499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>-16.84999999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>-16.849999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>530.4199999999997</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>530.41999999999973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>333.5249999999996</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8">
+        <v>333.52499999999958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>554.3607000000002</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B9">
+        <v>554.36070000000018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1169.24</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>445.8406999999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B11">
+        <v>445.84069999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>655.36</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>465.6749</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="B13">
+        <v>465.67489999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>813.6700000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="B14">
+        <v>813.67000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>2643.790000000001</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="B15">
+        <v>2643.7900000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>548.1600000000002</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1023.79</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>-1122.86</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="B18">
+        <v>-1122.8599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>745.4250000000002</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="B19">
+        <v>745.42500000000018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>-72.42999999999998</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="B20">
+        <v>-72.429999999999978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>1416.286300000001</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="B21">
+        <v>1416.2863000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>1722.030000000001</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="B22">
+        <v>1722.0300000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>999.0959000000001</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="B23">
+        <v>999.09590000000014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>778.9999999999998</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="B24">
+        <v>778.99999999999977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
-        <v>443.5674000000001</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="B25">
+        <v>443.56740000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
-        <v>2330.22</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="B26">
+        <v>2330.2199999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
-        <v>826.1799999999998</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="B27">
+        <v>826.17999999999984</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
-        <v>998.4399999999998</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="B28">
+        <v>998.43999999999983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
-        <v>1389.0985</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="B29">
+        <v>1389.0985000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1464.77</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
-        <v>964.5749999999994</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="B31">
+        <v>964.57499999999936</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>2976.02</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
-        <v>521.1499999999997</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="B33">
+        <v>521.14999999999975</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="n">
-        <v>667.4599999999999</v>
+      <c r="B34">
+        <v>667.45999999999992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1566.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>471.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>-107.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1320.2850000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>491.57000000000022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>580.7850000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>192.7699999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>312.14999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>164.8899999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1091.5350000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>413.9100000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1917.4965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>918.24500000000012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>821.35000000000014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>605.96910000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>872.68799999999965</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>595.7399999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2029.29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>406.34000000000009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>229.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1380.21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>-791.82999999999981</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>685.41000000000008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>799.01000000000022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1033.92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1038.8000000000011</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>703.70249999999965</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>678.24000000000035</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>558.7629000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>653.4149000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>734.38999999999987</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>918.15000000000066</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>696.57000000000016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>-625.95999999999981</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>482.42999999999989</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1044.0550000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>326.7030000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>864.30190000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>500.62500000000023</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>666.50500000000022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>96.290000000000077</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>900.42000000000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>623.15499999999975</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>570.48439999999982</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>-782.86999999999989</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1441.2049999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>660.70000000000016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>504.05999999999989</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>641.52000000000021</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1762.16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>452.64000000000021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>-689.21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>492.77999999999992</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1906.52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>910.27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1937.21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>459.92000000000019</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>459.99929999999972</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>-769.61999999999966</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/changing-meta-1.xlsx
+++ b/results/changing-meta-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\tradingbot-pws\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29380CEF-FD65-4BFB-A34F-981C4D28DB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C186200C-ACFE-4F2C-9003-949BC159E22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
